--- a/public/template/Template Import Quiz.xlsx
+++ b/public/template/Template Import Quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnoviandaru\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ruko\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E91771D-A7C7-4422-A642-054DE7BE7FD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F1053-2D21-4E02-82CD-67A649EEAFDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9812BD8F-7B10-4053-ACDF-F2695D87EBDE}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
-  <si>
-    <t>CATEGORY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>QUESTION</t>
   </si>
@@ -51,28 +48,7 @@
     <t>TRUE ANSWER</t>
   </si>
   <si>
-    <t>EXAMPLE</t>
-  </si>
-  <si>
-    <t>Kata</t>
-  </si>
-  <si>
-    <t>Tes</t>
-  </si>
-  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
 </sst>
 </file>
@@ -95,14 +71,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,11 +89,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -144,18 +116,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
+  <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -469,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D346803-D8DC-48E3-9B04-CEFF407DF175}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="B1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
@@ -488,7 +458,7 @@
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,40 +480,18 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{F0476B01-10B6-409B-AF3D-0695F191EEDC}">
+      <formula1>"A,B,C,D,E"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/template/Template Import Quiz.xlsx
+++ b/public/template/Template Import Quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ruko\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F1053-2D21-4E02-82CD-67A649EEAFDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A17D70-DF9F-4C75-AA8D-8DC350698871}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9812BD8F-7B10-4053-ACDF-F2695D87EBDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="23">
   <si>
     <t>QUESTION</t>
   </si>
@@ -49,13 +49,58 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Diantara berikut ini yang bukan merupakan anggota girlband Blackpink adalah?</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Jennie Kim</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Jisso</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +123,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,8 +150,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -115,17 +180,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -439,26 +555,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D346803-D8DC-48E3-9B04-CEFF407DF175}">
-  <dimension ref="B1:H2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="74.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,15 +599,161 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{F0476B01-10B6-409B-AF3D-0695F191EEDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{F0476B01-10B6-409B-AF3D-0695F191EEDC}">
       <formula1>"A,B,C,D,E"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/template/Template Import Quiz.xlsx
+++ b/public/template/Template Import Quiz.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ruko\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A17D70-DF9F-4C75-AA8D-8DC350698871}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B25D5F0-0D77-4566-A315-0EF89AB092C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9812BD8F-7B10-4053-ACDF-F2695D87EBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>QUESTION</t>
   </si>
@@ -94,13 +94,22 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>*keterangan</t>
+  </si>
+  <si>
+    <t>harus diisi</t>
+  </si>
+  <si>
+    <t>tidak harus diisi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,14 +119,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,8 +138,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +170,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -221,24 +253,28 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
@@ -555,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D346803-D8DC-48E3-9B04-CEFF407DF175}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -571,189 +607,244 @@
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="K4" s="11"/>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="K5" s="12"/>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{F0476B01-10B6-409B-AF3D-0695F191EEDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{F0476B01-10B6-409B-AF3D-0695F191EEDC}">
       <formula1>"A,B,C,D,E"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/template/Template Import Quiz.xlsx
+++ b/public/template/Template Import Quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\solve-jst\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B25D5F0-0D77-4566-A315-0EF89AB092C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02D5A0-6FCD-41F7-9E26-5FB9FFB82BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9812BD8F-7B10-4053-ACDF-F2695D87EBDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>QUESTION</t>
   </si>
@@ -102,7 +102,7 @@
     <t>harus diisi</t>
   </si>
   <si>
-    <t>tidak harus diisi</t>
+    <t>tidak harus diisi, cukup dikosongkan saja</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D346803-D8DC-48E3-9B04-CEFF407DF175}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -633,7 +633,7 @@
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -688,9 +688,7 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
@@ -717,12 +715,8 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
@@ -747,15 +741,9 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
@@ -786,9 +774,7 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
         <v>7</v>
       </c>

--- a/public/template/Template Import Quiz.xlsx
+++ b/public/template/Template Import Quiz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\solve-jst\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02D5A0-6FCD-41F7-9E26-5FB9FFB82BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AF1433-1F4D-435E-BFCA-DDC16E6C9BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9812BD8F-7B10-4053-ACDF-F2695D87EBDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>QUESTION</t>
   </si>
@@ -48,9 +48,6 @@
     <t>TRUE ANSWER</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -75,13 +72,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>O</t>
@@ -189,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -243,6 +234,15 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,7 +255,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
@@ -272,9 +272,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
@@ -591,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D346803-D8DC-48E3-9B04-CEFF407DF175}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -613,7 +618,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -637,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -645,28 +650,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -674,29 +679,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -704,28 +709,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -733,26 +738,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="K5" s="11"/>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -760,26 +765,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -789,7 +794,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
@@ -798,7 +803,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
@@ -807,7 +812,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
@@ -816,7 +821,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
@@ -825,13 +830,74 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H11" xr:uid="{F0476B01-10B6-409B-AF3D-0695F191EEDC}">
-      <formula1>"A,B,C,D,E"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H28" xr:uid="{4EC7598E-B75D-47DD-BC55-250B909F877C}">
+      <formula1>"Isian,A,B,C,D,E"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/Template Import Quiz.xlsx
+++ b/public/template/Template Import Quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\solve-jst\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AF1433-1F4D-435E-BFCA-DDC16E6C9BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9DC70B-2459-4FBF-B552-306F706F85CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9812BD8F-7B10-4053-ACDF-F2695D87EBDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>QUESTION</t>
   </si>
@@ -51,56 +51,38 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Diantara berikut ini yang bukan merupakan anggota girlband Blackpink adalah?</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Jennie Kim</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Jisso</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>*keterangan</t>
   </si>
   <si>
-    <t>harus diisi</t>
-  </si>
-  <si>
-    <t>tidak harus diisi, cukup dikosongkan saja</t>
+    <t>QUESTION PICTURE</t>
+  </si>
+  <si>
+    <t>Harus diisi</t>
+  </si>
+  <si>
+    <t>Tidak harus diisi</t>
+  </si>
+  <si>
+    <t>OPTION PICTURE A</t>
+  </si>
+  <si>
+    <t>OPTION PICTURE B</t>
+  </si>
+  <si>
+    <t>OPTION PICTURE C</t>
+  </si>
+  <si>
+    <t>OPTION PICTURE D</t>
+  </si>
+  <si>
+    <t>OPTION PICTURE E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +124,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,18 +159,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -198,9 +182,18 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -214,41 +207,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -257,29 +215,27 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
@@ -596,307 +552,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D346803-D8DC-48E3-9B04-CEFF407DF175}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="74.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="M1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="O1" s="12"/>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="13"/>
+      <c r="Q2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G23" s="14"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="14"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="13"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="4"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="4"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H28" xr:uid="{4EC7598E-B75D-47DD-BC55-250B909F877C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:H28 N2:N5 I6:I26" xr:uid="{4EC7598E-B75D-47DD-BC55-250B909F877C}">
       <formula1>"Isian,A,B,C,D,E"</formula1>
     </dataValidation>
   </dataValidations>
